--- a/biology/Botanique/Jardin_de_Prague/Jardin_de_Prague.xlsx
+++ b/biology/Botanique/Jardin_de_Prague/Jardin_de_Prague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin de Prague  est un jardin algérois situé à Bab El Oued, conçu en 1833 par le commandant Marengo[1],[2].
+Le jardin de Prague  est un jardin algérois situé à Bab El Oued, conçu en 1833 par le commandant Marengo,.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin a été aménagé par des prisonniers militaires du colonel français Marengo. Il s'y trouvait le tombeau de Lella Aïcha, petite-fille d'un marabout[3], et fille du docteur Sidi Abd-er-Rhaman[4].
-En 2017, le jardin est fermé pour travaux d'aménagement, l'opération est confiée à l'Établissement de développement des espaces verts à Alger (EDEVAL)[5]. 
-Le 15 janvier 2019, le ministre de l'Intérieur et des Collectivités locales, Noureddine Bedoui et le wali d'Alger Abdelkader Zoukh ont inauguré le jardin après la fin des travaux de réhabilitation[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin a été aménagé par des prisonniers militaires du colonel français Marengo. Il s'y trouvait le tombeau de Lella Aïcha, petite-fille d'un marabout, et fille du docteur Sidi Abd-er-Rhaman.
+En 2017, le jardin est fermé pour travaux d'aménagement, l'opération est confiée à l'Établissement de développement des espaces verts à Alger (EDEVAL). 
+Le 15 janvier 2019, le ministre de l'Intérieur et des Collectivités locales, Noureddine Bedoui et le wali d'Alger Abdelkader Zoukh ont inauguré le jardin après la fin des travaux de réhabilitation.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
